--- a/tools/excel/rbi/rbi-itgrcap-2023-2.xlsx
+++ b/tools/excel/rbi/rbi-itgrcap-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/rbi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F64A294-574B-264D-A2E6-69235D2E7C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3C77EE-8A6C-2A41-ACA9-44BCB00D729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="102400" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="102400" windowHeight="28200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="509">
   <si>
     <t>type</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>RBI Master Direction on Information Technology Governance, Risk, Controls and Assurance Practices, 2023</t>
-  </si>
-  <si>
-    <t>Chapter II - IT Governance</t>
   </si>
   <si>
     <t>IT Governance Framework</t>
@@ -484,9 +481,6 @@
     <t>The Head of IT acts as the primary protector (first line of defense), making sure IT systems are regularly checked for risks and security weaknesses. They must implement strong internal security measures (like secure passwords or access controls) to protect the financial institution's data and technology, ensuring full compliance with both internal rules and external RBI regulations.</t>
   </si>
   <si>
-    <t>Chapter III - IT Infrastructure &amp; Services Management</t>
-  </si>
-  <si>
     <t>IT Services Management</t>
   </si>
   <si>
@@ -949,9 +943,6 @@
     <t>Regulated Entities (REs) must use a consistent method, like a report card (scorecard) with specific measurements (metrics), to check how well their IT systems are performing and how mature their IT processes are. This ensures IT contributes effectively and securely to the business. For example, metrics could track system uptime or how quickly security issues are fixed.</t>
   </si>
   <si>
-    <t>Chapter IV - IT and Information Security Risk Management</t>
-  </si>
-  <si>
     <t>Periodic review of IT related risks</t>
   </si>
   <si>
@@ -1321,9 +1312,6 @@
     <t>To handle IT failures or security incidents better, regulated entities must continuously improve their response and recovery plans by analyzing what went wrong in past events and conducting regular simulated drills. Actionable items include mandatory mock incident drills and testing crisis communication plans with all relevant parties, including third-party service providers, to ensure prompt and coordinated action during a real emergency.</t>
   </si>
   <si>
-    <t>Chapter V - Business Continuity and Disaster Recovery Management</t>
-  </si>
-  <si>
     <t>Business Continuity Plan (BCP) and Disaster Recovery (DR) Policy</t>
   </si>
   <si>
@@ -1438,9 +1426,6 @@
     <t>REs must have backup plans (BCP/DR) for all vital IT systems, including those managed by external partners. This ensures that if a system fails, services can be restored quickly, meeting the Recovery Time Objective (RTO). They must regularly test these recovery plans with vendors to prove they work under pressure.</t>
   </si>
   <si>
-    <t>Chapter VI - Information Systems (IS) Audit</t>
-  </si>
-  <si>
     <t>Information Systems (IS) Audit</t>
   </si>
   <si>
@@ -1498,9 +1483,6 @@
     <t>Regulated Entities should try to audit their most important IT systems constantly, rather than just once a year. This means checking controls and risks more often to catch issues quickly. For example, instead of annual checks on payment systems, they would use automated tools to monitor security settings daily. The action is to adopt technology and processes for frequent, automated system checks.</t>
   </si>
   <si>
-    <t>Chapter VII – Repeal and Other Provisions</t>
-  </si>
-  <si>
     <t>Application of other laws not barred</t>
   </si>
   <si>
@@ -1538,6 +1520,39 @@
   </si>
   <si>
     <t>raghibawan</t>
+  </si>
+  <si>
+    <t>Chapter II</t>
+  </si>
+  <si>
+    <t>Chapter III</t>
+  </si>
+  <si>
+    <t>Chapter IV</t>
+  </si>
+  <si>
+    <t>Chapter V</t>
+  </si>
+  <si>
+    <t>Chapter VI</t>
+  </si>
+  <si>
+    <t>Chapter VII</t>
+  </si>
+  <si>
+    <t>IT Governance</t>
+  </si>
+  <si>
+    <t>IT and Information Security Risk Management</t>
+  </si>
+  <si>
+    <t>IT Infrastructure &amp; Services Management</t>
+  </si>
+  <si>
+    <t>Business Continuity and Disaster Recovery Management</t>
+  </si>
+  <si>
+    <t>Repeal and Other Provisions</t>
   </si>
 </sst>
 </file>
@@ -1897,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="96" x14ac:dyDescent="0.2">
@@ -1982,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2025,7 +2040,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2033,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2049,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2067,10 +2082,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2107,13 +2123,16 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>498</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>504</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -2122,12 +2141,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2135,104 +2154,104 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2240,12 +2259,12 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2253,35 +2272,35 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -2289,12 +2308,12 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2302,227 +2321,227 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>2</v>
       </c>
@@ -2530,12 +2549,12 @@
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>3</v>
       </c>
@@ -2544,103 +2563,103 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="4">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="4">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="4">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2652,13 +2671,13 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <v>3</v>
       </c>
@@ -2667,85 +2686,85 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="4">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="4">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="4">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>125</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="4">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>128</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2757,13 +2776,13 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4">
         <v>2</v>
       </c>
@@ -2771,12 +2790,12 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2784,114 +2803,117 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="B43" s="4">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>137</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="4">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>140</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="4">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>143</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="4">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="4">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>149</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <v>1</v>
       </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <v>2</v>
       </c>
@@ -2899,12 +2921,12 @@
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2912,89 +2934,89 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="4">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>155</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="4">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>157</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="4">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>160</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>161</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="4">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>163</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>164</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>166</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4">
         <v>2</v>
       </c>
@@ -3002,135 +3024,135 @@
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="4">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
         <v>171</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="4">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>173</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
         <v>174</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="4">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>176</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>177</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="4">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>179</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
         <v>180</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>182</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="4">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
         <v>183</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="4">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>185</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
         <v>186</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="4">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>188</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4">
         <v>2</v>
       </c>
@@ -3138,12 +3160,12 @@
         <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3151,53 +3173,53 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>193</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="4">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>195</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="4">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>196</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="4">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>198</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4">
         <v>2</v>
       </c>
@@ -3205,12 +3227,12 @@
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -3218,143 +3240,143 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="4">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>203</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="4">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>205</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>206</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="4">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>208</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>209</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="4">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>211</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="4">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>212</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="4">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="4">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>215</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="4">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>217</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="4">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>218</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" s="4">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>220</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>221</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="4">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>223</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="4">
         <v>2</v>
       </c>
@@ -3362,99 +3384,99 @@
         <v>13</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="4">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
         <v>228</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="4">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>230</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
         <v>231</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="4">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>233</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="4">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
         <v>234</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="4">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>236</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="4">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
         <v>237</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="4">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>239</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4">
         <v>2</v>
       </c>
@@ -3462,12 +3484,12 @@
         <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3475,17 +3497,17 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="4">
         <v>2</v>
       </c>
@@ -3493,12 +3515,12 @@
         <v>15</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -3510,13 +3532,13 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -3528,13 +3550,13 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -3546,13 +3568,13 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4">
         <v>2</v>
       </c>
@@ -3560,12 +3582,12 @@
         <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -3573,17 +3595,17 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4">
         <v>2</v>
       </c>
@@ -3591,12 +3613,12 @@
         <v>17</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -3604,35 +3626,35 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="4">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
         <v>259</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="4">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>261</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4">
         <v>2</v>
       </c>
@@ -3640,12 +3662,12 @@
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -3653,53 +3675,53 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="4">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
         <v>266</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="4">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>268</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="4">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
         <v>269</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" s="4">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>271</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="4">
         <v>2</v>
       </c>
@@ -3707,12 +3729,12 @@
         <v>19</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -3720,53 +3742,53 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="4">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
         <v>276</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="4">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>278</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>279</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>17</v>
-      </c>
-      <c r="B100" s="4">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>281</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="4">
         <v>2</v>
       </c>
@@ -3774,12 +3796,12 @@
         <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -3787,71 +3809,71 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="4">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
         <v>286</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" s="4">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>288</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="4">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
         <v>289</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="4">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
-        <v>291</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" s="4">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
         <v>292</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="4">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>294</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="4">
         <v>2</v>
       </c>
@@ -3859,12 +3881,12 @@
         <v>21</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -3872,63 +3894,66 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
         <v>299</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>17</v>
-      </c>
-      <c r="B108" s="4">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
-        <v>301</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
         <v>302</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>17</v>
-      </c>
-      <c r="B109" s="4">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>304</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B110" s="4">
         <v>1</v>
       </c>
+      <c r="C110" t="s">
+        <v>500</v>
+      </c>
       <c r="D110" s="1" t="s">
-        <v>307</v>
+        <v>505</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="4">
         <v>2</v>
       </c>
@@ -3936,12 +3961,12 @@
         <v>22</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -3949,17 +3974,17 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="4">
         <v>2</v>
       </c>
@@ -3967,27 +3992,27 @@
         <v>23</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="4">
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -3995,17 +4020,17 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -4013,17 +4038,17 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -4031,17 +4056,17 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -4049,17 +4074,17 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="4">
         <v>2</v>
       </c>
@@ -4067,12 +4092,12 @@
         <v>24</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -4080,32 +4105,32 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="4">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -4113,17 +4138,17 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -4131,17 +4156,17 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -4149,17 +4174,17 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -4167,32 +4192,32 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="4">
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -4200,17 +4225,17 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -4218,17 +4243,17 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -4236,17 +4261,17 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -4254,32 +4279,32 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="4">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -4287,17 +4312,17 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -4305,17 +4330,17 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -4323,17 +4348,17 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -4341,17 +4366,17 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -4359,17 +4384,17 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -4377,17 +4402,17 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -4395,17 +4420,17 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="4">
         <v>2</v>
       </c>
@@ -4413,12 +4438,12 @@
         <v>25</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -4426,17 +4451,17 @@
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -4444,17 +4469,17 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -4462,17 +4487,17 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="4">
         <v>2</v>
       </c>
@@ -4480,12 +4505,12 @@
         <v>26</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -4493,17 +4518,17 @@
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -4511,17 +4536,17 @@
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -4529,17 +4554,17 @@
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -4547,17 +4572,17 @@
         <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -4565,17 +4590,17 @@
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -4583,17 +4608,17 @@
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="4">
         <v>2</v>
       </c>
@@ -4601,12 +4626,12 @@
         <v>27</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -4614,17 +4639,17 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -4632,17 +4657,17 @@
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -4650,17 +4675,17 @@
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -4668,17 +4693,17 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -4686,27 +4711,30 @@
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B156" s="4">
         <v>1</v>
       </c>
+      <c r="C156" t="s">
+        <v>501</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="4">
         <v>2</v>
       </c>
@@ -4714,12 +4742,12 @@
         <v>28</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -4727,17 +4755,17 @@
         <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -4745,17 +4773,17 @@
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="4">
         <v>2</v>
       </c>
@@ -4763,12 +4791,12 @@
         <v>29</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -4776,17 +4804,17 @@
         <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -4794,17 +4822,17 @@
         <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -4812,17 +4840,17 @@
         <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -4830,17 +4858,17 @@
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -4848,17 +4876,17 @@
         <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -4866,17 +4894,17 @@
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -4884,17 +4912,17 @@
         <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -4902,17 +4930,17 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -4920,17 +4948,17 @@
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -4938,27 +4966,30 @@
         <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="4">
         <v>1</v>
       </c>
+      <c r="C171" t="s">
+        <v>502</v>
+      </c>
       <c r="D171" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="4">
         <v>2</v>
       </c>
@@ -4966,12 +4997,12 @@
         <v>30</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -4979,17 +5010,17 @@
         <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -4997,17 +5028,17 @@
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -5015,17 +5046,17 @@
         <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -5033,17 +5064,17 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -5051,17 +5082,17 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -5069,27 +5100,30 @@
         <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B179" s="4">
         <v>1</v>
       </c>
+      <c r="C179" t="s">
+        <v>503</v>
+      </c>
       <c r="D179" s="1" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="4">
         <v>2</v>
       </c>
@@ -5097,12 +5131,12 @@
         <v>31</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -5110,17 +5144,17 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="4">
         <v>2</v>
       </c>
@@ -5128,12 +5162,12 @@
         <v>32</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -5141,18 +5175,24 @@
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F183" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:F183" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
